--- a/Fake Folder copy/Finance/Recurring/IoT and Feather Report for Digi-Key/CSVs/Parts Used.xlsx
+++ b/Fake Folder copy/Finance/Recurring/IoT and Feather Report for Digi-Key/CSVs/Parts Used.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarad/Fake Folder/Finance/Recurring/IoT and Feather Report for Digi-Key/CSVs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CAB800-497E-A94E-9041-676AF2391847}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0ABEE2-1D91-D345-8B72-714430CE1D79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="254">
   <si>
     <t>Part Id</t>
   </si>
@@ -109,7 +109,7 @@
     <t>Adafruit FONA 800 Shield - Voice/Data Cellular GSM for Arduino</t>
   </si>
   <si>
-    <t>Adafruit HUZZAH ESP8266 Breakout</t>
+    <t>Adafruit HUZZAH ESP32 Breakout</t>
   </si>
   <si>
     <t>Adafruit Bluefruit LE UART Friend - Bluetooth Low Energy (BLE)</t>
@@ -754,13 +754,25 @@
     <t>Adafruit Feather nRF52840 Express</t>
   </si>
   <si>
-    <t>DOIT ESP-M2 Module</t>
+    <t>ESP8285 SMT Module - ESP8266 with 1MB FLASH</t>
   </si>
   <si>
     <t>Adafruit Feather M0 WiFi</t>
   </si>
   <si>
     <t>ESP-EYE Development Board V2.1</t>
+  </si>
+  <si>
+    <t>Adafruit PyPortal - CircuitPython Powered Internet Display</t>
+  </si>
+  <si>
+    <t>Adafruit 2.13" Tri-Color eInk / ePaper Display FeatherWing</t>
+  </si>
+  <si>
+    <t>Adafruit PyPortal Enclosure Kit</t>
+  </si>
+  <si>
+    <t>Adafruit ADXL343 + ADT7410 Sensor FeatherWing</t>
   </si>
   <si>
     <t>iot</t>
@@ -1171,7 +1183,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C251"/>
+  <dimension ref="A1:C255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1201,7 +1213,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1212,7 +1224,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1223,7 +1235,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1234,7 +1246,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1245,7 +1257,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1256,7 +1268,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1267,7 +1279,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1278,7 +1290,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1289,7 +1301,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1300,7 +1312,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1311,7 +1323,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1322,7 +1334,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1333,7 +1345,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1344,7 +1356,7 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1355,7 +1367,7 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1366,7 +1378,7 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1377,7 +1389,7 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1388,7 +1400,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1399,7 +1411,7 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1410,7 +1422,7 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1421,7 +1433,7 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1432,7 +1444,7 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1443,7 +1455,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1454,7 +1466,7 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1465,7 +1477,7 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1476,7 +1488,7 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1487,7 +1499,7 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1498,7 +1510,7 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1509,7 +1521,7 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1520,7 +1532,7 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1531,7 +1543,7 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1542,7 +1554,7 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1553,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1564,7 +1576,7 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1575,7 +1587,7 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1586,7 +1598,7 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1597,7 +1609,7 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1608,7 +1620,7 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1619,7 +1631,7 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1630,7 +1642,7 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1641,7 +1653,7 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1652,7 +1664,7 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1663,7 +1675,7 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1674,7 +1686,7 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1685,7 +1697,7 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1696,7 +1708,7 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1707,7 +1719,7 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1718,7 +1730,7 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1729,7 +1741,7 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1740,7 +1752,7 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1751,7 +1763,7 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1762,7 +1774,7 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1773,7 +1785,7 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1784,7 +1796,7 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1795,7 +1807,7 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1806,7 +1818,7 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1817,7 +1829,7 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1828,7 +1840,7 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1839,7 +1851,7 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1850,7 +1862,7 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1861,7 +1873,7 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1872,7 +1884,7 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1883,7 +1895,7 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1894,7 +1906,7 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1905,7 +1917,7 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1916,7 +1928,7 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -1927,7 +1939,7 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -1938,7 +1950,7 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -1949,7 +1961,7 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -1960,7 +1972,7 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -1971,7 +1983,7 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -1982,7 +1994,7 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -1993,7 +2005,7 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -2004,7 +2016,7 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -2015,7 +2027,7 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -2026,7 +2038,7 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -2037,7 +2049,7 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -2048,7 +2060,7 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -2059,7 +2071,7 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -2070,7 +2082,7 @@
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -2081,7 +2093,7 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -2092,7 +2104,7 @@
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -2103,7 +2115,7 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -2114,7 +2126,7 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -2125,7 +2137,7 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -2136,7 +2148,7 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -2147,7 +2159,7 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -2158,7 +2170,7 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -2169,7 +2181,7 @@
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -2180,7 +2192,7 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -2191,7 +2203,7 @@
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -2202,7 +2214,7 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -2213,7 +2225,7 @@
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -2224,7 +2236,7 @@
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -2235,7 +2247,7 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -2246,7 +2258,7 @@
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -2257,7 +2269,7 @@
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -2268,7 +2280,7 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -2279,7 +2291,7 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -2290,7 +2302,7 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -2301,7 +2313,7 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -2312,7 +2324,7 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -2323,7 +2335,7 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -2334,7 +2346,7 @@
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -2345,7 +2357,7 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -2356,7 +2368,7 @@
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -2367,7 +2379,7 @@
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -2378,7 +2390,7 @@
         <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -2389,7 +2401,7 @@
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -2400,7 +2412,7 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -2411,7 +2423,7 @@
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -2422,7 +2434,7 @@
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -2433,7 +2445,7 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -2444,7 +2456,7 @@
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -2455,7 +2467,7 @@
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -2466,7 +2478,7 @@
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -2477,7 +2489,7 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -2488,7 +2500,7 @@
         <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -2499,7 +2511,7 @@
         <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -2510,7 +2522,7 @@
         <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -2521,7 +2533,7 @@
         <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -2532,7 +2544,7 @@
         <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -2543,7 +2555,7 @@
         <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -2554,7 +2566,7 @@
         <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -2565,7 +2577,7 @@
         <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -2576,7 +2588,7 @@
         <v>128</v>
       </c>
       <c r="C127" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -2587,7 +2599,7 @@
         <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -2598,7 +2610,7 @@
         <v>47</v>
       </c>
       <c r="C129" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -2609,7 +2621,7 @@
         <v>33</v>
       </c>
       <c r="C130" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -2620,7 +2632,7 @@
         <v>130</v>
       </c>
       <c r="C131" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -2631,7 +2643,7 @@
         <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -2642,7 +2654,7 @@
         <v>132</v>
       </c>
       <c r="C133" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -2653,7 +2665,7 @@
         <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -2664,7 +2676,7 @@
         <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -2675,7 +2687,7 @@
         <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -2686,7 +2698,7 @@
         <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -2697,7 +2709,7 @@
         <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -2708,7 +2720,7 @@
         <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -2719,7 +2731,7 @@
         <v>139</v>
       </c>
       <c r="C140" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -2730,7 +2742,7 @@
         <v>140</v>
       </c>
       <c r="C141" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -2741,7 +2753,7 @@
         <v>141</v>
       </c>
       <c r="C142" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -2752,7 +2764,7 @@
         <v>142</v>
       </c>
       <c r="C143" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -2763,7 +2775,7 @@
         <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -2774,7 +2786,7 @@
         <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -2785,7 +2797,7 @@
         <v>145</v>
       </c>
       <c r="C146" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -2796,7 +2808,7 @@
         <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -2807,7 +2819,7 @@
         <v>147</v>
       </c>
       <c r="C148" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -2818,7 +2830,7 @@
         <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -2829,7 +2841,7 @@
         <v>149</v>
       </c>
       <c r="C150" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -2840,7 +2852,7 @@
         <v>150</v>
       </c>
       <c r="C151" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -2851,7 +2863,7 @@
         <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -2862,7 +2874,7 @@
         <v>152</v>
       </c>
       <c r="C153" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -2873,7 +2885,7 @@
         <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -2884,7 +2896,7 @@
         <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -2895,7 +2907,7 @@
         <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -2906,7 +2918,7 @@
         <v>156</v>
       </c>
       <c r="C157" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -2917,7 +2929,7 @@
         <v>157</v>
       </c>
       <c r="C158" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -2928,7 +2940,7 @@
         <v>158</v>
       </c>
       <c r="C159" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -2939,7 +2951,7 @@
         <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -2950,7 +2962,7 @@
         <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -2961,7 +2973,7 @@
         <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -2972,7 +2984,7 @@
         <v>162</v>
       </c>
       <c r="C163" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -2983,7 +2995,7 @@
         <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -2994,7 +3006,7 @@
         <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -3005,7 +3017,7 @@
         <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -3016,7 +3028,7 @@
         <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -3027,7 +3039,7 @@
         <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -3038,7 +3050,7 @@
         <v>168</v>
       </c>
       <c r="C169" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -3049,7 +3061,7 @@
         <v>169</v>
       </c>
       <c r="C170" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -3060,7 +3072,7 @@
         <v>170</v>
       </c>
       <c r="C171" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -3071,7 +3083,7 @@
         <v>171</v>
       </c>
       <c r="C172" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -3082,7 +3094,7 @@
         <v>172</v>
       </c>
       <c r="C173" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -3093,7 +3105,7 @@
         <v>173</v>
       </c>
       <c r="C174" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -3104,7 +3116,7 @@
         <v>174</v>
       </c>
       <c r="C175" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -3115,7 +3127,7 @@
         <v>175</v>
       </c>
       <c r="C176" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -3126,7 +3138,7 @@
         <v>176</v>
       </c>
       <c r="C177" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -3137,7 +3149,7 @@
         <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -3148,7 +3160,7 @@
         <v>178</v>
       </c>
       <c r="C179" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -3159,7 +3171,7 @@
         <v>179</v>
       </c>
       <c r="C180" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -3170,7 +3182,7 @@
         <v>180</v>
       </c>
       <c r="C181" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -3181,7 +3193,7 @@
         <v>181</v>
       </c>
       <c r="C182" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -3192,7 +3204,7 @@
         <v>182</v>
       </c>
       <c r="C183" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -3203,7 +3215,7 @@
         <v>183</v>
       </c>
       <c r="C184" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -3214,7 +3226,7 @@
         <v>184</v>
       </c>
       <c r="C185" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -3225,7 +3237,7 @@
         <v>185</v>
       </c>
       <c r="C186" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -3236,7 +3248,7 @@
         <v>186</v>
       </c>
       <c r="C187" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -3247,7 +3259,7 @@
         <v>187</v>
       </c>
       <c r="C188" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -3258,7 +3270,7 @@
         <v>188</v>
       </c>
       <c r="C189" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -3269,7 +3281,7 @@
         <v>189</v>
       </c>
       <c r="C190" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -3280,7 +3292,7 @@
         <v>190</v>
       </c>
       <c r="C191" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -3291,7 +3303,7 @@
         <v>191</v>
       </c>
       <c r="C192" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -3302,7 +3314,7 @@
         <v>192</v>
       </c>
       <c r="C193" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -3313,7 +3325,7 @@
         <v>193</v>
       </c>
       <c r="C194" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -3324,7 +3336,7 @@
         <v>194</v>
       </c>
       <c r="C195" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -3335,7 +3347,7 @@
         <v>195</v>
       </c>
       <c r="C196" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -3346,7 +3358,7 @@
         <v>186</v>
       </c>
       <c r="C197" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -3357,7 +3369,7 @@
         <v>69</v>
       </c>
       <c r="C198" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -3368,7 +3380,7 @@
         <v>196</v>
       </c>
       <c r="C199" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -3379,7 +3391,7 @@
         <v>197</v>
       </c>
       <c r="C200" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -3390,7 +3402,7 @@
         <v>198</v>
       </c>
       <c r="C201" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -3401,7 +3413,7 @@
         <v>199</v>
       </c>
       <c r="C202" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -3412,7 +3424,7 @@
         <v>200</v>
       </c>
       <c r="C203" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -3423,7 +3435,7 @@
         <v>201</v>
       </c>
       <c r="C204" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -3434,7 +3446,7 @@
         <v>202</v>
       </c>
       <c r="C205" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -3445,7 +3457,7 @@
         <v>203</v>
       </c>
       <c r="C206" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -3456,7 +3468,7 @@
         <v>204</v>
       </c>
       <c r="C207" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -3467,7 +3479,7 @@
         <v>205</v>
       </c>
       <c r="C208" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -3478,7 +3490,7 @@
         <v>206</v>
       </c>
       <c r="C209" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -3489,7 +3501,7 @@
         <v>207</v>
       </c>
       <c r="C210" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -3500,7 +3512,7 @@
         <v>208</v>
       </c>
       <c r="C211" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -3511,7 +3523,7 @@
         <v>209</v>
       </c>
       <c r="C212" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -3522,7 +3534,7 @@
         <v>210</v>
       </c>
       <c r="C213" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
@@ -3533,7 +3545,7 @@
         <v>211</v>
       </c>
       <c r="C214" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -3544,7 +3556,7 @@
         <v>212</v>
       </c>
       <c r="C215" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -3555,7 +3567,7 @@
         <v>213</v>
       </c>
       <c r="C216" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -3566,7 +3578,7 @@
         <v>214</v>
       </c>
       <c r="C217" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
@@ -3577,7 +3589,7 @@
         <v>215</v>
       </c>
       <c r="C218" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
@@ -3588,7 +3600,7 @@
         <v>216</v>
       </c>
       <c r="C219" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -3599,7 +3611,7 @@
         <v>217</v>
       </c>
       <c r="C220" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -3610,7 +3622,7 @@
         <v>218</v>
       </c>
       <c r="C221" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -3621,7 +3633,7 @@
         <v>181</v>
       </c>
       <c r="C222" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -3632,7 +3644,7 @@
         <v>219</v>
       </c>
       <c r="C223" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -3643,7 +3655,7 @@
         <v>220</v>
       </c>
       <c r="C224" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -3654,7 +3666,7 @@
         <v>221</v>
       </c>
       <c r="C225" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
@@ -3665,7 +3677,7 @@
         <v>222</v>
       </c>
       <c r="C226" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -3676,7 +3688,7 @@
         <v>223</v>
       </c>
       <c r="C227" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -3687,7 +3699,7 @@
         <v>224</v>
       </c>
       <c r="C228" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -3698,7 +3710,7 @@
         <v>225</v>
       </c>
       <c r="C229" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
@@ -3709,7 +3721,7 @@
         <v>226</v>
       </c>
       <c r="C230" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -3720,7 +3732,7 @@
         <v>227</v>
       </c>
       <c r="C231" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -3731,7 +3743,7 @@
         <v>228</v>
       </c>
       <c r="C232" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -3742,7 +3754,7 @@
         <v>229</v>
       </c>
       <c r="C233" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -3753,7 +3765,7 @@
         <v>230</v>
       </c>
       <c r="C234" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -3764,7 +3776,7 @@
         <v>231</v>
       </c>
       <c r="C235" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -3775,7 +3787,7 @@
         <v>232</v>
       </c>
       <c r="C236" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -3786,7 +3798,7 @@
         <v>233</v>
       </c>
       <c r="C237" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -3797,7 +3809,7 @@
         <v>234</v>
       </c>
       <c r="C238" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -3808,7 +3820,7 @@
         <v>235</v>
       </c>
       <c r="C239" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
@@ -3819,7 +3831,7 @@
         <v>236</v>
       </c>
       <c r="C240" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -3830,7 +3842,7 @@
         <v>237</v>
       </c>
       <c r="C241" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
@@ -3841,7 +3853,7 @@
         <v>238</v>
       </c>
       <c r="C242" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -3852,7 +3864,7 @@
         <v>239</v>
       </c>
       <c r="C243" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
@@ -3863,7 +3875,7 @@
         <v>240</v>
       </c>
       <c r="C244" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -3874,7 +3886,7 @@
         <v>241</v>
       </c>
       <c r="C245" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -3885,7 +3897,7 @@
         <v>242</v>
       </c>
       <c r="C246" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
@@ -3896,7 +3908,7 @@
         <v>243</v>
       </c>
       <c r="C247" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -3907,7 +3919,7 @@
         <v>244</v>
       </c>
       <c r="C248" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -3918,7 +3930,7 @@
         <v>245</v>
       </c>
       <c r="C249" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -3929,7 +3941,7 @@
         <v>75</v>
       </c>
       <c r="C250" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -3940,7 +3952,51 @@
         <v>246</v>
       </c>
       <c r="C251" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>4116</v>
+      </c>
+      <c r="B252" t="s">
         <v>247</v>
+      </c>
+      <c r="C252" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>4128</v>
+      </c>
+      <c r="B253" t="s">
+        <v>248</v>
+      </c>
+      <c r="C253" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>4146</v>
+      </c>
+      <c r="B254" t="s">
+        <v>249</v>
+      </c>
+      <c r="C254" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>4147</v>
+      </c>
+      <c r="B255" t="s">
+        <v>250</v>
+      </c>
+      <c r="C255" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/Fake Folder copy/Finance/Recurring/IoT and Feather Report for Digi-Key/CSVs/Parts Used.xlsx
+++ b/Fake Folder copy/Finance/Recurring/IoT and Feather Report for Digi-Key/CSVs/Parts Used.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarad/Fake Folder/Finance/Recurring/IoT and Feather Report for Digi-Key/CSVs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0ABEE2-1D91-D345-8B72-714430CE1D79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Parts Used" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="267">
   <si>
     <t>Part Id</t>
   </si>
@@ -43,6 +37,9 @@
     <t>RP-SMA to uFL/u.FL/IPX/IPEX RF Adapter Cable</t>
   </si>
   <si>
+    <t>Panel Mount Ethernet Extension Cable</t>
+  </si>
+  <si>
     <t>Nimbus the Cloud - Internet of Things- Sticker!</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
     <t>Getting Started with Bluetooth Low Energy by KTOWN</t>
   </si>
   <si>
+    <t>Element 14 BeagleBone Black Rev C - 4GB - Pre-installed Debian</t>
+  </si>
+  <si>
     <t>ACKme WiConnect WiFi Module - Mackerel Evaluation Board</t>
   </si>
   <si>
@@ -109,7 +109,7 @@
     <t>Adafruit FONA 800 Shield - Voice/Data Cellular GSM for Arduino</t>
   </si>
   <si>
-    <t>Adafruit HUZZAH ESP32 Breakout</t>
+    <t>Adafruit HUZZAH ESP8266 Breakout</t>
   </si>
   <si>
     <t>Adafruit Bluefruit LE UART Friend - Bluetooth Low Energy (BLE)</t>
@@ -277,6 +277,9 @@
     <t>Adafruit 15x7 CharliePlex LED Matrix Display FeatherWings</t>
   </si>
   <si>
+    <t>Ethernet Shield for Arduino - W5500 Chipset</t>
+  </si>
+  <si>
     <t>Adafruit Feather M0 Bluefruit LE</t>
   </si>
   <si>
@@ -490,6 +493,12 @@
     <t>Particle Electron Cellular IoT Kit - 3G Americas/Aus</t>
   </si>
   <si>
+    <t>802.3af PoE Output Data &amp; Power Splitter - 12V 1A</t>
+  </si>
+  <si>
+    <t>802.3af PoE Output Data &amp; Power Splitter - 5/9/12V</t>
+  </si>
+  <si>
     <t>Adafruit Feather 32u4 Bluefruit LE with Stacking Headers</t>
   </si>
   <si>
@@ -685,6 +694,9 @@
     <t>Raspberry Pi 3 - Model B+ - 1.4GHz Cortex-A53 with 1GB RAM</t>
   </si>
   <si>
+    <t>PoE Splitter with MicroUSB Plug - Isolated 12W - 5V 2.4 Amp</t>
+  </si>
+  <si>
     <t>Adafruit IO+ Subscription Pass â One Year</t>
   </si>
   <si>
@@ -706,6 +718,9 @@
     <t>The Things Gateway - 915Mhz Version</t>
   </si>
   <si>
+    <t>Raspberry Pi PoE Hat</t>
+  </si>
+  <si>
     <t>ESP32-WROVER-B Module - ESP32 with PSRAM Module</t>
   </si>
   <si>
@@ -733,6 +748,9 @@
     <t>Particle Xenon - nRF52840 with BLE and Mesh</t>
   </si>
   <si>
+    <t>Adafruit Metro M4 Express AirLift (WiFi) - Lite</t>
+  </si>
+  <si>
     <t>Particle FeatherWing Tripler</t>
   </si>
   <si>
@@ -751,6 +769,9 @@
     <t>Adafruit EL Sequencer Featherwing</t>
   </si>
   <si>
+    <t>AdaBox011 - PyPortal</t>
+  </si>
+  <si>
     <t>Adafruit Feather nRF52840 Express</t>
   </si>
   <si>
@@ -769,10 +790,22 @@
     <t>Adafruit 2.13" Tri-Color eInk / ePaper Display FeatherWing</t>
   </si>
   <si>
-    <t>Adafruit PyPortal Enclosure Kit</t>
-  </si>
-  <si>
     <t>Adafruit ADXL343 + ADT7410 Sensor FeatherWing</t>
+  </si>
+  <si>
+    <t>Adafruit HUZZAH32 â ESP32 Breakout Board</t>
+  </si>
+  <si>
+    <t>M5Stack Grey MPU 9250 Development Kit</t>
+  </si>
+  <si>
+    <t>M5Stack Black Basic Development Kit</t>
+  </si>
+  <si>
+    <t>Adafruit 2.13" Monochrome eInk / ePaper Display FeatherWing</t>
+  </si>
+  <si>
+    <t>Adafruit AirLift â ESP32 WiFi Co-Processor Breakout Board</t>
   </si>
   <si>
     <t>iot</t>
@@ -787,8 +820,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -851,14 +884,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -905,7 +930,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -937,27 +962,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -989,24 +996,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1182,19 +1171,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C255"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1205,7 +1189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>283</v>
       </c>
@@ -1213,10 +1197,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>435</v>
       </c>
@@ -1224,10 +1208,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>763</v>
       </c>
@@ -1235,10 +1219,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>852</v>
       </c>
@@ -1246,2757 +1230,2900 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
-        <v>940</v>
+        <v>909</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
-        <v>1012</v>
+        <v>945</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
-        <v>1129</v>
+        <v>1012</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
-        <v>1327</v>
+        <v>1130</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
-        <v>1491</v>
+        <v>1327</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
-        <v>1534</v>
+        <v>1491</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
-        <v>1588</v>
+        <v>1535</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
-        <v>1628</v>
+        <v>1588</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
-        <v>1697</v>
+        <v>1628</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
-        <v>1946</v>
+        <v>1697</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
-        <v>1963</v>
+        <v>1946</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
-        <v>1978</v>
+        <v>1963</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
-        <v>2022</v>
+        <v>1978</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
-        <v>2267</v>
+        <v>1996</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
-        <v>2268</v>
+        <v>2022</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
-        <v>2308</v>
+        <v>2268</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
-        <v>2468</v>
+        <v>2269</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
-        <v>2471</v>
+        <v>2308</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
-        <v>2479</v>
+        <v>2468</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
-        <v>2487</v>
+        <v>2471</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
-        <v>2491</v>
+        <v>2479</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
-        <v>2505</v>
+        <v>2487</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
-        <v>2521</v>
+        <v>2491</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34">
-        <v>2522</v>
+        <v>2505</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36">
-        <v>2542</v>
+        <v>2522</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37">
-        <v>2598</v>
+        <v>2523</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38">
-        <v>2633</v>
+        <v>2542</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39">
-        <v>2636</v>
+        <v>2598</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40">
-        <v>2637</v>
+        <v>2633</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41">
-        <v>2649</v>
+        <v>2636</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42">
-        <v>2653</v>
+        <v>2637</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43">
-        <v>2661</v>
+        <v>2649</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44">
-        <v>2678</v>
+        <v>2653</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45">
-        <v>2680</v>
+        <v>2661</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46">
-        <v>2687</v>
+        <v>2678</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47">
-        <v>2691</v>
+        <v>2680</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48">
-        <v>2696</v>
+        <v>2687</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49">
-        <v>2702</v>
+        <v>2691</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50">
-        <v>2705</v>
+        <v>2696</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51">
-        <v>2721</v>
+        <v>2702</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52">
-        <v>2722</v>
+        <v>2705</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53">
-        <v>2723</v>
+        <v>2721</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54">
-        <v>2724</v>
+        <v>2722</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55">
-        <v>2725</v>
+        <v>2723</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56">
-        <v>2732</v>
+        <v>2724</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57">
-        <v>2733</v>
+        <v>2725</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58">
-        <v>2737</v>
+        <v>2732</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59">
-        <v>2746</v>
+        <v>2733</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60">
-        <v>2771</v>
+        <v>2737</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61">
-        <v>2772</v>
+        <v>2746</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62">
-        <v>2795</v>
+        <v>2771</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63">
-        <v>2796</v>
+        <v>2772</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65">
-        <v>2799</v>
+        <v>2796</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66">
-        <v>2815</v>
+        <v>2798</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67">
-        <v>2821</v>
+        <v>2799</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68">
-        <v>2829</v>
+        <v>2815</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69">
-        <v>2830</v>
+        <v>2821</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70">
-        <v>2884</v>
+        <v>2829</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71">
-        <v>2886</v>
+        <v>2830</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72">
-        <v>2890</v>
+        <v>2884</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73">
-        <v>2895</v>
+        <v>2886</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74">
-        <v>2900</v>
+        <v>2890</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75">
-        <v>2922</v>
+        <v>2895</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76">
-        <v>2923</v>
+        <v>2900</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77">
-        <v>2926</v>
+        <v>2922</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78">
-        <v>2927</v>
+        <v>2923</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79">
-        <v>2928</v>
+        <v>2926</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80">
-        <v>2940</v>
+        <v>2927</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81">
-        <v>2945</v>
+        <v>2928</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82">
-        <v>2960</v>
+        <v>2940</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83">
-        <v>2965</v>
+        <v>2945</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84">
-        <v>2995</v>
+        <v>2960</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85">
-        <v>2999</v>
+        <v>2965</v>
       </c>
       <c r="B85" t="s">
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86">
-        <v>3010</v>
+        <v>2971</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87">
-        <v>3022</v>
+        <v>2995</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88">
-        <v>3026</v>
+        <v>2999</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89">
-        <v>3027</v>
+        <v>3010</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90">
-        <v>3028</v>
+        <v>3022</v>
       </c>
       <c r="B90" t="s">
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="B91" t="s">
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92">
-        <v>3031</v>
+        <v>3027</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93">
-        <v>3032</v>
+        <v>3028</v>
       </c>
       <c r="B93" t="s">
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94">
-        <v>3040</v>
+        <v>3029</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95">
-        <v>3044</v>
+        <v>3031</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96">
-        <v>3046</v>
+        <v>3032</v>
       </c>
       <c r="B96" t="s">
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97">
-        <v>3051</v>
+        <v>3040</v>
       </c>
       <c r="B97" t="s">
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98">
-        <v>3056</v>
+        <v>3044</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99">
-        <v>3058</v>
+        <v>3046</v>
       </c>
       <c r="B99" t="s">
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100">
-        <v>3060</v>
+        <v>3051</v>
       </c>
       <c r="B100" t="s">
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101">
-        <v>3061</v>
+        <v>3056</v>
       </c>
       <c r="B101" t="s">
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102">
-        <v>3064</v>
+        <v>3058</v>
       </c>
       <c r="B102" t="s">
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103">
-        <v>3076</v>
+        <v>3060</v>
       </c>
       <c r="B103" t="s">
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104">
-        <v>3077</v>
+        <v>3061</v>
       </c>
       <c r="B104" t="s">
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105">
-        <v>3078</v>
+        <v>3064</v>
       </c>
       <c r="B105" t="s">
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="B106" t="s">
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107">
-        <v>3088</v>
+        <v>3077</v>
       </c>
       <c r="B107" t="s">
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108">
-        <v>3089</v>
+        <v>3078</v>
       </c>
       <c r="B108" t="s">
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109">
-        <v>3090</v>
+        <v>3079</v>
       </c>
       <c r="B109" t="s">
         <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110">
-        <v>3106</v>
+        <v>3088</v>
       </c>
       <c r="B110" t="s">
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111">
-        <v>3107</v>
+        <v>3089</v>
       </c>
       <c r="B111" t="s">
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112">
-        <v>3108</v>
+        <v>3090</v>
       </c>
       <c r="B112" t="s">
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="B113" t="s">
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="B114" t="s">
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115">
-        <v>3127</v>
+        <v>3108</v>
       </c>
       <c r="B115" t="s">
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116">
-        <v>3128</v>
+        <v>3109</v>
       </c>
       <c r="B116" t="s">
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117">
-        <v>3129</v>
+        <v>3110</v>
       </c>
       <c r="B117" t="s">
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="B118" t="s">
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="B119" t="s">
         <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="B120" t="s">
         <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="B121" t="s">
         <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="B122" t="s">
         <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="B123" t="s">
         <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="B124" t="s">
         <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="B125" t="s">
         <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="B126" t="s">
         <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="B127" t="s">
         <v>128</v>
       </c>
       <c r="C127" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="B128" t="s">
         <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129">
+        <v>3138</v>
+      </c>
+      <c r="B129" t="s">
+        <v>130</v>
+      </c>
+      <c r="C129" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>3139</v>
+      </c>
+      <c r="B130" t="s">
+        <v>131</v>
+      </c>
+      <c r="C130" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>3140</v>
+      </c>
+      <c r="B131" t="s">
+        <v>132</v>
+      </c>
+      <c r="C131" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
         <v>3147</v>
       </c>
-      <c r="B129" t="s">
-        <v>47</v>
-      </c>
-      <c r="C129" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130">
+      <c r="B132" t="s">
+        <v>49</v>
+      </c>
+      <c r="C132" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
         <v>3148</v>
       </c>
-      <c r="B130" t="s">
-        <v>33</v>
-      </c>
-      <c r="C130" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131">
+      <c r="B133" t="s">
+        <v>35</v>
+      </c>
+      <c r="C133" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
         <v>3149</v>
-      </c>
-      <c r="B131" t="s">
-        <v>130</v>
-      </c>
-      <c r="C131" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>3150</v>
-      </c>
-      <c r="B132" t="s">
-        <v>131</v>
-      </c>
-      <c r="C132" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>3151</v>
-      </c>
-      <c r="B133" t="s">
-        <v>132</v>
-      </c>
-      <c r="C133" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>3152</v>
       </c>
       <c r="B134" t="s">
         <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="B135" t="s">
         <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="B136" t="s">
         <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="B137" t="s">
         <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138">
-        <v>3163</v>
+        <v>3153</v>
       </c>
       <c r="B138" t="s">
         <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139">
-        <v>3173</v>
+        <v>3154</v>
       </c>
       <c r="B139" t="s">
         <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140">
-        <v>3176</v>
+        <v>3155</v>
       </c>
       <c r="B140" t="s">
         <v>139</v>
       </c>
       <c r="C140" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141">
-        <v>3177</v>
+        <v>3163</v>
       </c>
       <c r="B141" t="s">
         <v>140</v>
       </c>
       <c r="C141" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142">
-        <v>3178</v>
+        <v>3173</v>
       </c>
       <c r="B142" t="s">
         <v>141</v>
       </c>
       <c r="C142" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="B143" t="s">
         <v>142</v>
       </c>
       <c r="C143" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144">
-        <v>3184</v>
+        <v>3177</v>
       </c>
       <c r="B144" t="s">
         <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145">
-        <v>3191</v>
+        <v>3178</v>
       </c>
       <c r="B145" t="s">
         <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146">
-        <v>3200</v>
+        <v>3179</v>
       </c>
       <c r="B146" t="s">
         <v>145</v>
       </c>
       <c r="C146" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147">
-        <v>3201</v>
+        <v>3184</v>
       </c>
       <c r="B147" t="s">
         <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148">
-        <v>3207</v>
+        <v>3191</v>
       </c>
       <c r="B148" t="s">
         <v>147</v>
       </c>
       <c r="C148" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149">
-        <v>3210</v>
+        <v>3200</v>
       </c>
       <c r="B149" t="s">
         <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150">
-        <v>3213</v>
+        <v>3201</v>
       </c>
       <c r="B150" t="s">
         <v>149</v>
       </c>
       <c r="C150" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151">
-        <v>3229</v>
+        <v>3207</v>
       </c>
       <c r="B151" t="s">
         <v>150</v>
       </c>
       <c r="C151" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152">
-        <v>3230</v>
+        <v>3210</v>
       </c>
       <c r="B152" t="s">
         <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153">
-        <v>3231</v>
+        <v>3213</v>
       </c>
       <c r="B153" t="s">
         <v>152</v>
       </c>
       <c r="C153" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="B154" t="s">
         <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="B155" t="s">
         <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="B156" t="s">
         <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157">
-        <v>3242</v>
+        <v>3232</v>
       </c>
       <c r="B157" t="s">
         <v>156</v>
       </c>
       <c r="C157" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158">
-        <v>3243</v>
+        <v>3233</v>
       </c>
       <c r="B158" t="s">
         <v>157</v>
       </c>
       <c r="C158" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159">
-        <v>3254</v>
+        <v>3234</v>
       </c>
       <c r="B159" t="s">
         <v>158</v>
       </c>
       <c r="C159" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160">
-        <v>3268</v>
+        <v>3238</v>
       </c>
       <c r="B160" t="s">
         <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161">
-        <v>3269</v>
+        <v>3239</v>
       </c>
       <c r="B161" t="s">
         <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162">
-        <v>3292</v>
+        <v>3242</v>
       </c>
       <c r="B162" t="s">
         <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163">
-        <v>3312</v>
+        <v>3243</v>
       </c>
       <c r="B163" t="s">
         <v>162</v>
       </c>
       <c r="C163" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164">
-        <v>3315</v>
+        <v>3254</v>
       </c>
       <c r="B164" t="s">
         <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165">
-        <v>3320</v>
+        <v>3268</v>
       </c>
       <c r="B165" t="s">
         <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166">
-        <v>3321</v>
+        <v>3269</v>
       </c>
       <c r="B166" t="s">
         <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167">
-        <v>3324</v>
+        <v>3292</v>
       </c>
       <c r="B167" t="s">
         <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168">
-        <v>3338</v>
+        <v>3312</v>
       </c>
       <c r="B168" t="s">
         <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169">
-        <v>3339</v>
+        <v>3315</v>
       </c>
       <c r="B169" t="s">
         <v>168</v>
       </c>
       <c r="C169" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170">
-        <v>3340</v>
+        <v>3320</v>
       </c>
       <c r="B170" t="s">
         <v>169</v>
       </c>
       <c r="C170" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171">
-        <v>3343</v>
+        <v>3321</v>
       </c>
       <c r="B171" t="s">
         <v>170</v>
       </c>
       <c r="C171" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172">
-        <v>3344</v>
+        <v>3324</v>
       </c>
       <c r="B172" t="s">
         <v>171</v>
       </c>
       <c r="C172" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173">
-        <v>3357</v>
+        <v>3338</v>
       </c>
       <c r="B173" t="s">
         <v>172</v>
       </c>
       <c r="C173" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174">
-        <v>3366</v>
+        <v>3339</v>
       </c>
       <c r="B174" t="s">
         <v>173</v>
       </c>
       <c r="C174" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175">
-        <v>3372</v>
+        <v>3340</v>
       </c>
       <c r="B175" t="s">
         <v>174</v>
       </c>
       <c r="C175" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176">
-        <v>3379</v>
+        <v>3343</v>
       </c>
       <c r="B176" t="s">
         <v>175</v>
       </c>
       <c r="C176" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177">
-        <v>3381</v>
+        <v>3344</v>
       </c>
       <c r="B177" t="s">
         <v>176</v>
       </c>
       <c r="C177" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178">
-        <v>3384</v>
+        <v>3357</v>
       </c>
       <c r="B178" t="s">
         <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179">
-        <v>3400</v>
+        <v>3366</v>
       </c>
       <c r="B179" t="s">
         <v>178</v>
       </c>
       <c r="C179" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180">
-        <v>3403</v>
+        <v>3372</v>
       </c>
       <c r="B180" t="s">
         <v>179</v>
       </c>
       <c r="C180" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181">
-        <v>3404</v>
+        <v>3379</v>
       </c>
       <c r="B181" t="s">
         <v>180</v>
       </c>
       <c r="C181" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182">
-        <v>3405</v>
+        <v>3381</v>
       </c>
       <c r="B182" t="s">
         <v>181</v>
       </c>
       <c r="C182" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183">
-        <v>3406</v>
+        <v>3384</v>
       </c>
       <c r="B183" t="s">
         <v>182</v>
       </c>
       <c r="C183" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184">
-        <v>3408</v>
+        <v>3400</v>
       </c>
       <c r="B184" t="s">
         <v>183</v>
       </c>
       <c r="C184" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185">
-        <v>3417</v>
+        <v>3403</v>
       </c>
       <c r="B185" t="s">
         <v>184</v>
       </c>
       <c r="C185" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186">
-        <v>3418</v>
+        <v>3404</v>
       </c>
       <c r="B186" t="s">
         <v>185</v>
       </c>
       <c r="C186" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187">
-        <v>3436</v>
+        <v>3405</v>
       </c>
       <c r="B187" t="s">
         <v>186</v>
       </c>
       <c r="C187" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188">
-        <v>3449</v>
+        <v>3406</v>
       </c>
       <c r="B188" t="s">
         <v>187</v>
       </c>
       <c r="C188" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189">
-        <v>3450</v>
+        <v>3408</v>
       </c>
       <c r="B189" t="s">
         <v>188</v>
       </c>
       <c r="C189" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190">
-        <v>3451</v>
+        <v>3417</v>
       </c>
       <c r="B190" t="s">
         <v>189</v>
       </c>
       <c r="C190" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191">
-        <v>3452</v>
+        <v>3418</v>
       </c>
       <c r="B191" t="s">
         <v>190</v>
       </c>
       <c r="C191" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192">
-        <v>3453</v>
+        <v>3436</v>
       </c>
       <c r="B192" t="s">
         <v>191</v>
       </c>
       <c r="C192" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193">
-        <v>3454</v>
+        <v>3449</v>
       </c>
       <c r="B193" t="s">
         <v>192</v>
       </c>
       <c r="C193" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194">
-        <v>3455</v>
+        <v>3450</v>
       </c>
       <c r="B194" t="s">
         <v>193</v>
       </c>
       <c r="C194" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195">
-        <v>3457</v>
+        <v>3451</v>
       </c>
       <c r="B195" t="s">
         <v>194</v>
       </c>
       <c r="C195" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196">
-        <v>3458</v>
+        <v>3452</v>
       </c>
       <c r="B196" t="s">
         <v>195</v>
       </c>
       <c r="C196" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197">
+        <v>3453</v>
+      </c>
+      <c r="B197" t="s">
+        <v>196</v>
+      </c>
+      <c r="C197" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198">
+        <v>3454</v>
+      </c>
+      <c r="B198" t="s">
+        <v>197</v>
+      </c>
+      <c r="C198" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199">
+        <v>3455</v>
+      </c>
+      <c r="B199" t="s">
+        <v>198</v>
+      </c>
+      <c r="C199" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200">
+        <v>3457</v>
+      </c>
+      <c r="B200" t="s">
+        <v>199</v>
+      </c>
+      <c r="C200" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201">
+        <v>3458</v>
+      </c>
+      <c r="B201" t="s">
+        <v>200</v>
+      </c>
+      <c r="C201" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202">
         <v>3470</v>
       </c>
-      <c r="B197" t="s">
-        <v>186</v>
-      </c>
-      <c r="C197" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198">
+      <c r="B202" t="s">
+        <v>191</v>
+      </c>
+      <c r="C202" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203">
         <v>3503</v>
       </c>
-      <c r="B198" t="s">
-        <v>69</v>
-      </c>
-      <c r="C198" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199">
+      <c r="B203" t="s">
+        <v>71</v>
+      </c>
+      <c r="C203" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204">
         <v>3506</v>
-      </c>
-      <c r="B199" t="s">
-        <v>196</v>
-      </c>
-      <c r="C199" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200">
-        <v>3507</v>
-      </c>
-      <c r="B200" t="s">
-        <v>197</v>
-      </c>
-      <c r="C200" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201">
-        <v>3534</v>
-      </c>
-      <c r="B201" t="s">
-        <v>198</v>
-      </c>
-      <c r="C201" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202">
-        <v>3574</v>
-      </c>
-      <c r="B202" t="s">
-        <v>199</v>
-      </c>
-      <c r="C202" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203">
-        <v>3584</v>
-      </c>
-      <c r="B203" t="s">
-        <v>200</v>
-      </c>
-      <c r="C203" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204">
-        <v>3585</v>
       </c>
       <c r="B204" t="s">
         <v>201</v>
       </c>
       <c r="C204" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
       <c r="A205">
-        <v>3591</v>
+        <v>3507</v>
       </c>
       <c r="B205" t="s">
         <v>202</v>
       </c>
       <c r="C205" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
       <c r="A206">
-        <v>3593</v>
+        <v>3534</v>
       </c>
       <c r="B206" t="s">
         <v>203</v>
       </c>
       <c r="C206" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207">
-        <v>3594</v>
+        <v>3574</v>
       </c>
       <c r="B207" t="s">
         <v>204</v>
       </c>
       <c r="C207" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208">
-        <v>3604</v>
+        <v>3584</v>
       </c>
       <c r="B208" t="s">
         <v>205</v>
       </c>
       <c r="C208" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209">
-        <v>3605</v>
+        <v>3585</v>
       </c>
       <c r="B209" t="s">
         <v>206</v>
       </c>
       <c r="C209" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210">
-        <v>3606</v>
+        <v>3591</v>
       </c>
       <c r="B210" t="s">
         <v>207</v>
       </c>
       <c r="C210" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211">
-        <v>3608</v>
+        <v>3593</v>
       </c>
       <c r="B211" t="s">
         <v>208</v>
       </c>
       <c r="C211" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212">
-        <v>3609</v>
+        <v>3594</v>
       </c>
       <c r="B212" t="s">
         <v>209</v>
       </c>
       <c r="C212" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213">
-        <v>3612</v>
+        <v>3604</v>
       </c>
       <c r="B213" t="s">
         <v>210</v>
       </c>
       <c r="C213" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214">
-        <v>3613</v>
+        <v>3605</v>
       </c>
       <c r="B214" t="s">
         <v>211</v>
       </c>
       <c r="C214" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215">
-        <v>3619</v>
+        <v>3606</v>
       </c>
       <c r="B215" t="s">
         <v>212</v>
       </c>
       <c r="C215" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216">
-        <v>3622</v>
+        <v>3608</v>
       </c>
       <c r="B216" t="s">
         <v>213</v>
       </c>
       <c r="C216" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217">
-        <v>3623</v>
+        <v>3609</v>
       </c>
       <c r="B217" t="s">
         <v>214</v>
       </c>
       <c r="C217" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218">
-        <v>3632</v>
+        <v>3612</v>
       </c>
       <c r="B218" t="s">
         <v>215</v>
       </c>
       <c r="C218" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219">
-        <v>3650</v>
+        <v>3613</v>
       </c>
       <c r="B219" t="s">
         <v>216</v>
       </c>
       <c r="C219" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
       <c r="A220">
-        <v>3651</v>
+        <v>3619</v>
       </c>
       <c r="B220" t="s">
         <v>217</v>
       </c>
       <c r="C220" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
       <c r="A221">
-        <v>3689</v>
+        <v>3622</v>
       </c>
       <c r="B221" t="s">
         <v>218</v>
       </c>
       <c r="C221" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
       <c r="A222">
+        <v>3623</v>
+      </c>
+      <c r="B222" t="s">
+        <v>219</v>
+      </c>
+      <c r="C222" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223">
+        <v>3632</v>
+      </c>
+      <c r="B223" t="s">
+        <v>220</v>
+      </c>
+      <c r="C223" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224">
+        <v>3650</v>
+      </c>
+      <c r="B224" t="s">
+        <v>221</v>
+      </c>
+      <c r="C224" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225">
+        <v>3651</v>
+      </c>
+      <c r="B225" t="s">
+        <v>222</v>
+      </c>
+      <c r="C225" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226">
+        <v>3689</v>
+      </c>
+      <c r="B226" t="s">
+        <v>223</v>
+      </c>
+      <c r="C226" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227">
         <v>3707</v>
       </c>
-      <c r="B222" t="s">
-        <v>181</v>
-      </c>
-      <c r="C222" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223">
+      <c r="B227" t="s">
+        <v>186</v>
+      </c>
+      <c r="C227" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228">
         <v>3747</v>
-      </c>
-      <c r="B223" t="s">
-        <v>219</v>
-      </c>
-      <c r="C223" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224">
-        <v>3775</v>
-      </c>
-      <c r="B224" t="s">
-        <v>220</v>
-      </c>
-      <c r="C224" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225">
-        <v>3792</v>
-      </c>
-      <c r="B225" t="s">
-        <v>221</v>
-      </c>
-      <c r="C225" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226">
-        <v>3807</v>
-      </c>
-      <c r="B226" t="s">
-        <v>222</v>
-      </c>
-      <c r="C226" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227">
-        <v>3808</v>
-      </c>
-      <c r="B227" t="s">
-        <v>223</v>
-      </c>
-      <c r="C227" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228">
-        <v>3857</v>
       </c>
       <c r="B228" t="s">
         <v>224</v>
       </c>
       <c r="C228" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
       <c r="A229">
-        <v>3876</v>
+        <v>3775</v>
       </c>
       <c r="B229" t="s">
         <v>225</v>
       </c>
       <c r="C229" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
       <c r="A230">
-        <v>3883</v>
+        <v>3785</v>
       </c>
       <c r="B230" t="s">
         <v>226</v>
       </c>
       <c r="C230" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231">
-        <v>3943</v>
+        <v>3792</v>
       </c>
       <c r="B231" t="s">
         <v>227</v>
       </c>
       <c r="C231" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
       <c r="A232">
-        <v>3979</v>
+        <v>3807</v>
       </c>
       <c r="B232" t="s">
         <v>228</v>
       </c>
       <c r="C232" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
       <c r="A233">
-        <v>3980</v>
+        <v>3808</v>
       </c>
       <c r="B233" t="s">
         <v>229</v>
       </c>
       <c r="C233" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
       <c r="A234">
-        <v>3993</v>
+        <v>3857</v>
       </c>
       <c r="B234" t="s">
         <v>230</v>
       </c>
       <c r="C234" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
       <c r="A235">
-        <v>3994</v>
+        <v>3876</v>
       </c>
       <c r="B235" t="s">
         <v>231</v>
       </c>
       <c r="C235" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
       <c r="A236">
-        <v>3995</v>
+        <v>3883</v>
       </c>
       <c r="B236" t="s">
         <v>232</v>
       </c>
       <c r="C236" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
       <c r="A237">
-        <v>3996</v>
+        <v>3943</v>
       </c>
       <c r="B237" t="s">
         <v>233</v>
       </c>
       <c r="C237" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
       <c r="A238">
-        <v>3997</v>
+        <v>3953</v>
       </c>
       <c r="B238" t="s">
         <v>234</v>
       </c>
       <c r="C238" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
       <c r="A239">
-        <v>3998</v>
+        <v>3979</v>
       </c>
       <c r="B239" t="s">
         <v>235</v>
       </c>
       <c r="C239" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
       <c r="A240">
-        <v>3999</v>
+        <v>3980</v>
       </c>
       <c r="B240" t="s">
         <v>236</v>
       </c>
       <c r="C240" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
       <c r="A241">
-        <v>4002</v>
+        <v>3993</v>
       </c>
       <c r="B241" t="s">
         <v>237</v>
       </c>
       <c r="C241" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
       <c r="A242">
-        <v>4003</v>
+        <v>3994</v>
       </c>
       <c r="B242" t="s">
         <v>238</v>
       </c>
       <c r="C242" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
       <c r="A243">
-        <v>4004</v>
+        <v>3995</v>
       </c>
       <c r="B243" t="s">
         <v>239</v>
       </c>
       <c r="C243" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
       <c r="A244">
-        <v>4005</v>
+        <v>3996</v>
       </c>
       <c r="B244" t="s">
         <v>240</v>
       </c>
       <c r="C244" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
       <c r="A245">
-        <v>4006</v>
+        <v>3997</v>
       </c>
       <c r="B245" t="s">
         <v>241</v>
       </c>
       <c r="C245" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
       <c r="A246">
-        <v>4039</v>
+        <v>3998</v>
       </c>
       <c r="B246" t="s">
         <v>242</v>
       </c>
       <c r="C246" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
       <c r="A247">
-        <v>4062</v>
+        <v>3999</v>
       </c>
       <c r="B247" t="s">
         <v>243</v>
       </c>
       <c r="C247" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
       <c r="A248">
-        <v>4065</v>
+        <v>4000</v>
       </c>
       <c r="B248" t="s">
         <v>244</v>
       </c>
       <c r="C248" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
       <c r="A249">
-        <v>4083</v>
+        <v>4002</v>
       </c>
       <c r="B249" t="s">
         <v>245</v>
       </c>
       <c r="C249" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250">
+        <v>4003</v>
+      </c>
+      <c r="B250" t="s">
+        <v>246</v>
+      </c>
+      <c r="C250" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251">
+        <v>4004</v>
+      </c>
+      <c r="B251" t="s">
+        <v>247</v>
+      </c>
+      <c r="C251" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252">
+        <v>4005</v>
+      </c>
+      <c r="B252" t="s">
+        <v>248</v>
+      </c>
+      <c r="C252" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253">
+        <v>4006</v>
+      </c>
+      <c r="B253" t="s">
+        <v>249</v>
+      </c>
+      <c r="C253" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254">
+        <v>4039</v>
+      </c>
+      <c r="B254" t="s">
+        <v>250</v>
+      </c>
+      <c r="C254" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255">
+        <v>4061</v>
+      </c>
+      <c r="B255" t="s">
+        <v>251</v>
+      </c>
+      <c r="C255" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256">
+        <v>4062</v>
+      </c>
+      <c r="B256" t="s">
+        <v>252</v>
+      </c>
+      <c r="C256" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257">
+        <v>4065</v>
+      </c>
+      <c r="B257" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250">
+      <c r="C257" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258">
+        <v>4083</v>
+      </c>
+      <c r="B258" t="s">
+        <v>254</v>
+      </c>
+      <c r="C258" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259">
         <v>4091</v>
       </c>
-      <c r="B250" t="s">
-        <v>75</v>
-      </c>
-      <c r="C250" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251">
+      <c r="B259" t="s">
+        <v>77</v>
+      </c>
+      <c r="C259" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260">
         <v>4095</v>
       </c>
-      <c r="B251" t="s">
-        <v>246</v>
-      </c>
-      <c r="C251" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252">
+      <c r="B260" t="s">
+        <v>255</v>
+      </c>
+      <c r="C260" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261">
         <v>4116</v>
       </c>
-      <c r="B252" t="s">
-        <v>247</v>
-      </c>
-      <c r="C252" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253">
+      <c r="B261" t="s">
+        <v>256</v>
+      </c>
+      <c r="C261" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262">
         <v>4128</v>
       </c>
-      <c r="B253" t="s">
-        <v>248</v>
-      </c>
-      <c r="C253" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A254">
-        <v>4146</v>
-      </c>
-      <c r="B254" t="s">
-        <v>249</v>
-      </c>
-      <c r="C254" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A255">
+      <c r="B262" t="s">
+        <v>257</v>
+      </c>
+      <c r="C262" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263">
         <v>4147</v>
       </c>
-      <c r="B255" t="s">
-        <v>250</v>
-      </c>
-      <c r="C255" t="s">
-        <v>252</v>
+      <c r="B263" t="s">
+        <v>258</v>
+      </c>
+      <c r="C263" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264">
+        <v>4172</v>
+      </c>
+      <c r="B264" t="s">
+        <v>259</v>
+      </c>
+      <c r="C264" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265">
+        <v>4177</v>
+      </c>
+      <c r="B265" t="s">
+        <v>260</v>
+      </c>
+      <c r="C265" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266">
+        <v>4178</v>
+      </c>
+      <c r="B266" t="s">
+        <v>261</v>
+      </c>
+      <c r="C266" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267">
+        <v>4195</v>
+      </c>
+      <c r="B267" t="s">
+        <v>262</v>
+      </c>
+      <c r="C267" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268">
+        <v>4201</v>
+      </c>
+      <c r="B268" t="s">
+        <v>263</v>
+      </c>
+      <c r="C268" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/Fake Folder copy/Finance/Recurring/IoT and Feather Report for Digi-Key/CSVs/Parts Used.xlsx
+++ b/Fake Folder copy/Finance/Recurring/IoT and Feather Report for Digi-Key/CSVs/Parts Used.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarad/Scripts/Fake Folder copy/Finance/Recurring/IoT and Feather Report for Digi-Key/CSVs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801DEA07-531F-1B43-B188-C0E0F511B309}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts Used" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="271">
   <si>
     <t>Part Id</t>
   </si>
@@ -796,16 +802,28 @@
     <t>Adafruit HUZZAH32 â ESP32 Breakout Board</t>
   </si>
   <si>
-    <t>M5Stack Grey MPU 9250 Development Kit</t>
-  </si>
-  <si>
-    <t>M5Stack Black Basic Development Kit</t>
+    <t>M5Stack FACES ESP32 Pocket Computer - Keyboard, Game, Calculator</t>
+  </si>
+  <si>
+    <t>M5Stack Gray Development Kit - ESP32 Dev Board w/ MPU9250</t>
+  </si>
+  <si>
+    <t>M5Stack Basic Core IoT Development Kit - ESP32 Dev Board</t>
   </si>
   <si>
     <t>Adafruit 2.13" Monochrome eInk / ePaper Display FeatherWing</t>
   </si>
   <si>
     <t>Adafruit AirLift â ESP32 WiFi Co-Processor Breakout Board</t>
+  </si>
+  <si>
+    <t>Adafruit Quad 2x2 FeatherWing Kit with Headers</t>
+  </si>
+  <si>
+    <t>Adafruit Quad Side-By-Side FeatherWing Kit with Headers</t>
+  </si>
+  <si>
+    <t>Adafruit AirLift FeatherWing â ESP32 WiFi Co-Processor</t>
   </si>
   <si>
     <t>iot</t>
@@ -820,8 +838,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -884,6 +902,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -930,7 +956,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -962,9 +988,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -996,6 +1040,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1171,14 +1233,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C268"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1189,7 +1256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>283</v>
       </c>
@@ -1197,10 +1264,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>435</v>
       </c>
@@ -1208,10 +1275,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>763</v>
       </c>
@@ -1219,10 +1286,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>852</v>
       </c>
@@ -1230,10 +1297,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>909</v>
       </c>
@@ -1241,10 +1308,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>940</v>
       </c>
@@ -1252,10 +1319,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>944</v>
       </c>
@@ -1263,10 +1330,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>945</v>
       </c>
@@ -1274,10 +1341,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1012</v>
       </c>
@@ -1285,10 +1352,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1129</v>
       </c>
@@ -1296,10 +1363,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1130</v>
       </c>
@@ -1307,10 +1374,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1327</v>
       </c>
@@ -1318,10 +1385,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1491</v>
       </c>
@@ -1329,10 +1396,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1534</v>
       </c>
@@ -1340,10 +1407,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1535</v>
       </c>
@@ -1351,10 +1418,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1588</v>
       </c>
@@ -1362,10 +1429,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1628</v>
       </c>
@@ -1373,10 +1440,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1697</v>
       </c>
@@ -1384,10 +1451,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1946</v>
       </c>
@@ -1395,10 +1462,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1963</v>
       </c>
@@ -1406,10 +1473,10 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1978</v>
       </c>
@@ -1417,10 +1484,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1996</v>
       </c>
@@ -1428,10 +1495,10 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2022</v>
       </c>
@@ -1439,10 +1506,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2267</v>
       </c>
@@ -1450,10 +1517,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2268</v>
       </c>
@@ -1461,10 +1528,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2269</v>
       </c>
@@ -1472,10 +1539,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2308</v>
       </c>
@@ -1483,10 +1550,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2468</v>
       </c>
@@ -1494,10 +1561,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2471</v>
       </c>
@@ -1505,10 +1572,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2479</v>
       </c>
@@ -1516,10 +1583,10 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2487</v>
       </c>
@@ -1527,10 +1594,10 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2491</v>
       </c>
@@ -1538,10 +1605,10 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2505</v>
       </c>
@@ -1549,10 +1616,10 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2521</v>
       </c>
@@ -1560,10 +1627,10 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2522</v>
       </c>
@@ -1571,10 +1638,10 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2523</v>
       </c>
@@ -1582,10 +1649,10 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2542</v>
       </c>
@@ -1593,10 +1660,10 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2598</v>
       </c>
@@ -1604,10 +1671,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2633</v>
       </c>
@@ -1615,10 +1682,10 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2636</v>
       </c>
@@ -1626,10 +1693,10 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2637</v>
       </c>
@@ -1637,10 +1704,10 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2649</v>
       </c>
@@ -1648,10 +1715,10 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2653</v>
       </c>
@@ -1659,10 +1726,10 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2661</v>
       </c>
@@ -1670,10 +1737,10 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2678</v>
       </c>
@@ -1681,10 +1748,10 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2680</v>
       </c>
@@ -1692,10 +1759,10 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2687</v>
       </c>
@@ -1703,10 +1770,10 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2691</v>
       </c>
@@ -1714,10 +1781,10 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2696</v>
       </c>
@@ -1725,10 +1792,10 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2702</v>
       </c>
@@ -1736,10 +1803,10 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2705</v>
       </c>
@@ -1747,10 +1814,10 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2721</v>
       </c>
@@ -1758,10 +1825,10 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2722</v>
       </c>
@@ -1769,10 +1836,10 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2723</v>
       </c>
@@ -1780,10 +1847,10 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2724</v>
       </c>
@@ -1791,10 +1858,10 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2725</v>
       </c>
@@ -1802,10 +1869,10 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2732</v>
       </c>
@@ -1813,10 +1880,10 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2733</v>
       </c>
@@ -1824,10 +1891,10 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2737</v>
       </c>
@@ -1835,10 +1902,10 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2746</v>
       </c>
@@ -1846,10 +1913,10 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2771</v>
       </c>
@@ -1857,10 +1924,10 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2772</v>
       </c>
@@ -1868,10 +1935,10 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2795</v>
       </c>
@@ -1879,10 +1946,10 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2796</v>
       </c>
@@ -1890,10 +1957,10 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2798</v>
       </c>
@@ -1901,10 +1968,10 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2799</v>
       </c>
@@ -1912,10 +1979,10 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2815</v>
       </c>
@@ -1923,10 +1990,10 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2821</v>
       </c>
@@ -1934,10 +2001,10 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2829</v>
       </c>
@@ -1945,10 +2012,10 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2830</v>
       </c>
@@ -1956,10 +2023,10 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2884</v>
       </c>
@@ -1967,10 +2034,10 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2886</v>
       </c>
@@ -1978,10 +2045,10 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2890</v>
       </c>
@@ -1989,10 +2056,10 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2895</v>
       </c>
@@ -2000,10 +2067,10 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2900</v>
       </c>
@@ -2011,10 +2078,10 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2922</v>
       </c>
@@ -2022,10 +2089,10 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2923</v>
       </c>
@@ -2033,10 +2100,10 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2926</v>
       </c>
@@ -2044,10 +2111,10 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2927</v>
       </c>
@@ -2055,10 +2122,10 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2928</v>
       </c>
@@ -2066,10 +2133,10 @@
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2940</v>
       </c>
@@ -2077,10 +2144,10 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2945</v>
       </c>
@@ -2088,10 +2155,10 @@
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2960</v>
       </c>
@@ -2099,10 +2166,10 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2965</v>
       </c>
@@ -2110,10 +2177,10 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2971</v>
       </c>
@@ -2121,10 +2188,10 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2995</v>
       </c>
@@ -2132,10 +2199,10 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2999</v>
       </c>
@@ -2143,10 +2210,10 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>3010</v>
       </c>
@@ -2154,10 +2221,10 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>3022</v>
       </c>
@@ -2165,10 +2232,10 @@
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>3026</v>
       </c>
@@ -2176,10 +2243,10 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>3027</v>
       </c>
@@ -2187,10 +2254,10 @@
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>3028</v>
       </c>
@@ -2198,10 +2265,10 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>3029</v>
       </c>
@@ -2209,10 +2276,10 @@
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>3031</v>
       </c>
@@ -2220,10 +2287,10 @@
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>3032</v>
       </c>
@@ -2231,10 +2298,10 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>3040</v>
       </c>
@@ -2242,10 +2309,10 @@
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>3044</v>
       </c>
@@ -2253,10 +2320,10 @@
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>3046</v>
       </c>
@@ -2264,10 +2331,10 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>3051</v>
       </c>
@@ -2275,10 +2342,10 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>3056</v>
       </c>
@@ -2286,10 +2353,10 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>3058</v>
       </c>
@@ -2297,10 +2364,10 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>3060</v>
       </c>
@@ -2308,10 +2375,10 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>3061</v>
       </c>
@@ -2319,10 +2386,10 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>3064</v>
       </c>
@@ -2330,10 +2397,10 @@
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>3076</v>
       </c>
@@ -2341,10 +2408,10 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>3077</v>
       </c>
@@ -2352,10 +2419,10 @@
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>3078</v>
       </c>
@@ -2363,10 +2430,10 @@
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>3079</v>
       </c>
@@ -2374,10 +2441,10 @@
         <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>3088</v>
       </c>
@@ -2385,10 +2452,10 @@
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>3089</v>
       </c>
@@ -2396,10 +2463,10 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>3090</v>
       </c>
@@ -2407,10 +2474,10 @@
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>3106</v>
       </c>
@@ -2418,10 +2485,10 @@
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>3107</v>
       </c>
@@ -2429,10 +2496,10 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>3108</v>
       </c>
@@ -2440,10 +2507,10 @@
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>3109</v>
       </c>
@@ -2451,10 +2518,10 @@
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>3110</v>
       </c>
@@ -2462,10 +2529,10 @@
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>3127</v>
       </c>
@@ -2473,10 +2540,10 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>3128</v>
       </c>
@@ -2484,10 +2551,10 @@
         <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>3129</v>
       </c>
@@ -2495,10 +2562,10 @@
         <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>3130</v>
       </c>
@@ -2506,10 +2573,10 @@
         <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>3131</v>
       </c>
@@ -2517,10 +2584,10 @@
         <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>3132</v>
       </c>
@@ -2528,10 +2595,10 @@
         <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>3133</v>
       </c>
@@ -2539,10 +2606,10 @@
         <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>3134</v>
       </c>
@@ -2550,10 +2617,10 @@
         <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>3135</v>
       </c>
@@ -2561,10 +2628,10 @@
         <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>3136</v>
       </c>
@@ -2572,10 +2639,10 @@
         <v>128</v>
       </c>
       <c r="C127" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>3137</v>
       </c>
@@ -2583,10 +2650,10 @@
         <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>3138</v>
       </c>
@@ -2594,10 +2661,10 @@
         <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>3139</v>
       </c>
@@ -2605,10 +2672,10 @@
         <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>3140</v>
       </c>
@@ -2616,10 +2683,10 @@
         <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>3147</v>
       </c>
@@ -2627,10 +2694,10 @@
         <v>49</v>
       </c>
       <c r="C132" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>3148</v>
       </c>
@@ -2638,10 +2705,10 @@
         <v>35</v>
       </c>
       <c r="C133" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>3149</v>
       </c>
@@ -2649,10 +2716,10 @@
         <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>3150</v>
       </c>
@@ -2660,10 +2727,10 @@
         <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>3151</v>
       </c>
@@ -2671,10 +2738,10 @@
         <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>3152</v>
       </c>
@@ -2682,10 +2749,10 @@
         <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>3153</v>
       </c>
@@ -2693,10 +2760,10 @@
         <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>3154</v>
       </c>
@@ -2704,10 +2771,10 @@
         <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>3155</v>
       </c>
@@ -2715,10 +2782,10 @@
         <v>139</v>
       </c>
       <c r="C140" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>3163</v>
       </c>
@@ -2726,10 +2793,10 @@
         <v>140</v>
       </c>
       <c r="C141" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>3173</v>
       </c>
@@ -2737,10 +2804,10 @@
         <v>141</v>
       </c>
       <c r="C142" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>3176</v>
       </c>
@@ -2748,10 +2815,10 @@
         <v>142</v>
       </c>
       <c r="C143" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>3177</v>
       </c>
@@ -2759,10 +2826,10 @@
         <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>3178</v>
       </c>
@@ -2770,10 +2837,10 @@
         <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>3179</v>
       </c>
@@ -2781,10 +2848,10 @@
         <v>145</v>
       </c>
       <c r="C146" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>3184</v>
       </c>
@@ -2792,10 +2859,10 @@
         <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>3191</v>
       </c>
@@ -2803,10 +2870,10 @@
         <v>147</v>
       </c>
       <c r="C148" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>3200</v>
       </c>
@@ -2814,10 +2881,10 @@
         <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>3201</v>
       </c>
@@ -2825,10 +2892,10 @@
         <v>149</v>
       </c>
       <c r="C150" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>3207</v>
       </c>
@@ -2836,10 +2903,10 @@
         <v>150</v>
       </c>
       <c r="C151" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>3210</v>
       </c>
@@ -2847,10 +2914,10 @@
         <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>3213</v>
       </c>
@@ -2858,10 +2925,10 @@
         <v>152</v>
       </c>
       <c r="C153" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>3229</v>
       </c>
@@ -2869,10 +2936,10 @@
         <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>3230</v>
       </c>
@@ -2880,10 +2947,10 @@
         <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>3231</v>
       </c>
@@ -2891,10 +2958,10 @@
         <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>3232</v>
       </c>
@@ -2902,10 +2969,10 @@
         <v>156</v>
       </c>
       <c r="C157" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>3233</v>
       </c>
@@ -2913,10 +2980,10 @@
         <v>157</v>
       </c>
       <c r="C158" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>3234</v>
       </c>
@@ -2924,10 +2991,10 @@
         <v>158</v>
       </c>
       <c r="C159" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>3238</v>
       </c>
@@ -2935,10 +3002,10 @@
         <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>3239</v>
       </c>
@@ -2946,10 +3013,10 @@
         <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>3242</v>
       </c>
@@ -2957,10 +3024,10 @@
         <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>3243</v>
       </c>
@@ -2968,10 +3035,10 @@
         <v>162</v>
       </c>
       <c r="C163" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>3254</v>
       </c>
@@ -2979,10 +3046,10 @@
         <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>3268</v>
       </c>
@@ -2990,10 +3057,10 @@
         <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>3269</v>
       </c>
@@ -3001,10 +3068,10 @@
         <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>3292</v>
       </c>
@@ -3012,10 +3079,10 @@
         <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>3312</v>
       </c>
@@ -3023,10 +3090,10 @@
         <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>3315</v>
       </c>
@@ -3034,10 +3101,10 @@
         <v>168</v>
       </c>
       <c r="C169" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>3320</v>
       </c>
@@ -3045,10 +3112,10 @@
         <v>169</v>
       </c>
       <c r="C170" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>3321</v>
       </c>
@@ -3056,10 +3123,10 @@
         <v>170</v>
       </c>
       <c r="C171" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>3324</v>
       </c>
@@ -3067,10 +3134,10 @@
         <v>171</v>
       </c>
       <c r="C172" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>3338</v>
       </c>
@@ -3078,10 +3145,10 @@
         <v>172</v>
       </c>
       <c r="C173" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>3339</v>
       </c>
@@ -3089,10 +3156,10 @@
         <v>173</v>
       </c>
       <c r="C174" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>3340</v>
       </c>
@@ -3100,10 +3167,10 @@
         <v>174</v>
       </c>
       <c r="C175" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>3343</v>
       </c>
@@ -3111,10 +3178,10 @@
         <v>175</v>
       </c>
       <c r="C176" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>3344</v>
       </c>
@@ -3122,10 +3189,10 @@
         <v>176</v>
       </c>
       <c r="C177" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>3357</v>
       </c>
@@ -3133,10 +3200,10 @@
         <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>3366</v>
       </c>
@@ -3144,10 +3211,10 @@
         <v>178</v>
       </c>
       <c r="C179" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>3372</v>
       </c>
@@ -3155,10 +3222,10 @@
         <v>179</v>
       </c>
       <c r="C180" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>3379</v>
       </c>
@@ -3166,10 +3233,10 @@
         <v>180</v>
       </c>
       <c r="C181" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>3381</v>
       </c>
@@ -3177,10 +3244,10 @@
         <v>181</v>
       </c>
       <c r="C182" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>3384</v>
       </c>
@@ -3188,10 +3255,10 @@
         <v>182</v>
       </c>
       <c r="C183" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>3400</v>
       </c>
@@ -3199,10 +3266,10 @@
         <v>183</v>
       </c>
       <c r="C184" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>3403</v>
       </c>
@@ -3210,10 +3277,10 @@
         <v>184</v>
       </c>
       <c r="C185" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>3404</v>
       </c>
@@ -3221,10 +3288,10 @@
         <v>185</v>
       </c>
       <c r="C186" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>3405</v>
       </c>
@@ -3232,10 +3299,10 @@
         <v>186</v>
       </c>
       <c r="C187" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>3406</v>
       </c>
@@ -3243,10 +3310,10 @@
         <v>187</v>
       </c>
       <c r="C188" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>3408</v>
       </c>
@@ -3254,10 +3321,10 @@
         <v>188</v>
       </c>
       <c r="C189" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>3417</v>
       </c>
@@ -3265,10 +3332,10 @@
         <v>189</v>
       </c>
       <c r="C190" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>3418</v>
       </c>
@@ -3276,10 +3343,10 @@
         <v>190</v>
       </c>
       <c r="C191" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>3436</v>
       </c>
@@ -3287,10 +3354,10 @@
         <v>191</v>
       </c>
       <c r="C192" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>3449</v>
       </c>
@@ -3298,10 +3365,10 @@
         <v>192</v>
       </c>
       <c r="C193" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>3450</v>
       </c>
@@ -3309,10 +3376,10 @@
         <v>193</v>
       </c>
       <c r="C194" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>3451</v>
       </c>
@@ -3320,10 +3387,10 @@
         <v>194</v>
       </c>
       <c r="C195" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>3452</v>
       </c>
@@ -3331,10 +3398,10 @@
         <v>195</v>
       </c>
       <c r="C196" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>3453</v>
       </c>
@@ -3342,10 +3409,10 @@
         <v>196</v>
       </c>
       <c r="C197" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>3454</v>
       </c>
@@ -3353,10 +3420,10 @@
         <v>197</v>
       </c>
       <c r="C198" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>3455</v>
       </c>
@@ -3364,10 +3431,10 @@
         <v>198</v>
       </c>
       <c r="C199" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>3457</v>
       </c>
@@ -3375,10 +3442,10 @@
         <v>199</v>
       </c>
       <c r="C200" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>3458</v>
       </c>
@@ -3386,10 +3453,10 @@
         <v>200</v>
       </c>
       <c r="C201" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>3470</v>
       </c>
@@ -3397,10 +3464,10 @@
         <v>191</v>
       </c>
       <c r="C202" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>3503</v>
       </c>
@@ -3408,10 +3475,10 @@
         <v>71</v>
       </c>
       <c r="C203" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>3506</v>
       </c>
@@ -3419,10 +3486,10 @@
         <v>201</v>
       </c>
       <c r="C204" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>3507</v>
       </c>
@@ -3430,10 +3497,10 @@
         <v>202</v>
       </c>
       <c r="C205" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>3534</v>
       </c>
@@ -3441,10 +3508,10 @@
         <v>203</v>
       </c>
       <c r="C206" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>3574</v>
       </c>
@@ -3452,10 +3519,10 @@
         <v>204</v>
       </c>
       <c r="C207" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>3584</v>
       </c>
@@ -3463,10 +3530,10 @@
         <v>205</v>
       </c>
       <c r="C208" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>3585</v>
       </c>
@@ -3474,10 +3541,10 @@
         <v>206</v>
       </c>
       <c r="C209" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>3591</v>
       </c>
@@ -3485,10 +3552,10 @@
         <v>207</v>
       </c>
       <c r="C210" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>3593</v>
       </c>
@@ -3496,10 +3563,10 @@
         <v>208</v>
       </c>
       <c r="C211" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>3594</v>
       </c>
@@ -3507,10 +3574,10 @@
         <v>209</v>
       </c>
       <c r="C212" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>3604</v>
       </c>
@@ -3518,10 +3585,10 @@
         <v>210</v>
       </c>
       <c r="C213" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>3605</v>
       </c>
@@ -3529,10 +3596,10 @@
         <v>211</v>
       </c>
       <c r="C214" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>3606</v>
       </c>
@@ -3540,10 +3607,10 @@
         <v>212</v>
       </c>
       <c r="C215" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>3608</v>
       </c>
@@ -3551,10 +3618,10 @@
         <v>213</v>
       </c>
       <c r="C216" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>3609</v>
       </c>
@@ -3562,10 +3629,10 @@
         <v>214</v>
       </c>
       <c r="C217" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>3612</v>
       </c>
@@ -3573,10 +3640,10 @@
         <v>215</v>
       </c>
       <c r="C218" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>3613</v>
       </c>
@@ -3584,10 +3651,10 @@
         <v>216</v>
       </c>
       <c r="C219" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>3619</v>
       </c>
@@ -3595,10 +3662,10 @@
         <v>217</v>
       </c>
       <c r="C220" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>3622</v>
       </c>
@@ -3606,10 +3673,10 @@
         <v>218</v>
       </c>
       <c r="C221" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>3623</v>
       </c>
@@ -3617,10 +3684,10 @@
         <v>219</v>
       </c>
       <c r="C222" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>3632</v>
       </c>
@@ -3628,10 +3695,10 @@
         <v>220</v>
       </c>
       <c r="C223" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>3650</v>
       </c>
@@ -3639,10 +3706,10 @@
         <v>221</v>
       </c>
       <c r="C224" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>3651</v>
       </c>
@@ -3650,10 +3717,10 @@
         <v>222</v>
       </c>
       <c r="C225" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>3689</v>
       </c>
@@ -3661,10 +3728,10 @@
         <v>223</v>
       </c>
       <c r="C226" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>3707</v>
       </c>
@@ -3672,10 +3739,10 @@
         <v>186</v>
       </c>
       <c r="C227" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>3747</v>
       </c>
@@ -3683,10 +3750,10 @@
         <v>224</v>
       </c>
       <c r="C228" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>3775</v>
       </c>
@@ -3694,10 +3761,10 @@
         <v>225</v>
       </c>
       <c r="C229" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>3785</v>
       </c>
@@ -3705,10 +3772,10 @@
         <v>226</v>
       </c>
       <c r="C230" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>3792</v>
       </c>
@@ -3716,10 +3783,10 @@
         <v>227</v>
       </c>
       <c r="C231" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>3807</v>
       </c>
@@ -3727,10 +3794,10 @@
         <v>228</v>
       </c>
       <c r="C232" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>3808</v>
       </c>
@@ -3738,10 +3805,10 @@
         <v>229</v>
       </c>
       <c r="C233" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>3857</v>
       </c>
@@ -3749,10 +3816,10 @@
         <v>230</v>
       </c>
       <c r="C234" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>3876</v>
       </c>
@@ -3760,10 +3827,10 @@
         <v>231</v>
       </c>
       <c r="C235" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>3883</v>
       </c>
@@ -3771,10 +3838,10 @@
         <v>232</v>
       </c>
       <c r="C236" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>3943</v>
       </c>
@@ -3782,10 +3849,10 @@
         <v>233</v>
       </c>
       <c r="C237" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>3953</v>
       </c>
@@ -3793,10 +3860,10 @@
         <v>234</v>
       </c>
       <c r="C238" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>3979</v>
       </c>
@@ -3804,10 +3871,10 @@
         <v>235</v>
       </c>
       <c r="C239" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>3980</v>
       </c>
@@ -3815,10 +3882,10 @@
         <v>236</v>
       </c>
       <c r="C240" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>3993</v>
       </c>
@@ -3826,10 +3893,10 @@
         <v>237</v>
       </c>
       <c r="C241" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>3994</v>
       </c>
@@ -3837,10 +3904,10 @@
         <v>238</v>
       </c>
       <c r="C242" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>3995</v>
       </c>
@@ -3848,10 +3915,10 @@
         <v>239</v>
       </c>
       <c r="C243" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>3996</v>
       </c>
@@ -3859,10 +3926,10 @@
         <v>240</v>
       </c>
       <c r="C244" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>3997</v>
       </c>
@@ -3870,10 +3937,10 @@
         <v>241</v>
       </c>
       <c r="C245" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>3998</v>
       </c>
@@ -3881,10 +3948,10 @@
         <v>242</v>
       </c>
       <c r="C246" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>3999</v>
       </c>
@@ -3892,10 +3959,10 @@
         <v>243</v>
       </c>
       <c r="C247" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>4000</v>
       </c>
@@ -3903,10 +3970,10 @@
         <v>244</v>
       </c>
       <c r="C248" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>4002</v>
       </c>
@@ -3914,10 +3981,10 @@
         <v>245</v>
       </c>
       <c r="C249" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>4003</v>
       </c>
@@ -3925,10 +3992,10 @@
         <v>246</v>
       </c>
       <c r="C250" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>4004</v>
       </c>
@@ -3936,10 +4003,10 @@
         <v>247</v>
       </c>
       <c r="C251" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>4005</v>
       </c>
@@ -3947,10 +4014,10 @@
         <v>248</v>
       </c>
       <c r="C252" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>4006</v>
       </c>
@@ -3958,10 +4025,10 @@
         <v>249</v>
       </c>
       <c r="C253" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>4039</v>
       </c>
@@ -3969,10 +4036,10 @@
         <v>250</v>
       </c>
       <c r="C254" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>4061</v>
       </c>
@@ -3980,10 +4047,10 @@
         <v>251</v>
       </c>
       <c r="C255" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>4062</v>
       </c>
@@ -3991,10 +4058,10 @@
         <v>252</v>
       </c>
       <c r="C256" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>4065</v>
       </c>
@@ -4002,10 +4069,10 @@
         <v>253</v>
       </c>
       <c r="C257" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>4083</v>
       </c>
@@ -4013,10 +4080,10 @@
         <v>254</v>
       </c>
       <c r="C258" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>4091</v>
       </c>
@@ -4024,10 +4091,10 @@
         <v>77</v>
       </c>
       <c r="C259" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>4095</v>
       </c>
@@ -4035,10 +4102,10 @@
         <v>255</v>
       </c>
       <c r="C260" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>4116</v>
       </c>
@@ -4046,10 +4113,10 @@
         <v>256</v>
       </c>
       <c r="C261" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>4128</v>
       </c>
@@ -4057,10 +4124,10 @@
         <v>257</v>
       </c>
       <c r="C262" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>4147</v>
       </c>
@@ -4068,10 +4135,10 @@
         <v>258</v>
       </c>
       <c r="C263" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>4172</v>
       </c>
@@ -4079,51 +4146,95 @@
         <v>259</v>
       </c>
       <c r="C264" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265">
-        <v>4177</v>
+        <v>4176</v>
       </c>
       <c r="B265" t="s">
         <v>260</v>
       </c>
       <c r="C265" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266">
-        <v>4178</v>
+        <v>4177</v>
       </c>
       <c r="B266" t="s">
         <v>261</v>
       </c>
       <c r="C266" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267">
-        <v>4195</v>
+        <v>4178</v>
       </c>
       <c r="B267" t="s">
         <v>262</v>
       </c>
       <c r="C267" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268">
-        <v>4201</v>
+        <v>4195</v>
       </c>
       <c r="B268" t="s">
         <v>263</v>
       </c>
       <c r="C268" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>4201</v>
+      </c>
+      <c r="B269" t="s">
         <v>264</v>
+      </c>
+      <c r="C269" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>4253</v>
+      </c>
+      <c r="B270" t="s">
+        <v>265</v>
+      </c>
+      <c r="C270" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>4254</v>
+      </c>
+      <c r="B271" t="s">
+        <v>266</v>
+      </c>
+      <c r="C271" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>4264</v>
+      </c>
+      <c r="B272" t="s">
+        <v>267</v>
+      </c>
+      <c r="C272" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
